--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -1,53 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Taxon" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submodels" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartments" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Species types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concentrations" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Observables" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Functions" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reactions" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rate laws" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biomass components" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biomass reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameters" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stop conditions" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="References" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Database references" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Taxon" sheetId="2" r:id="rId2"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
+    <sheet name="Species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="Observables" sheetId="7" r:id="rId7"/>
+    <sheet name="Functions" sheetId="8" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="9" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="13" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
+    <sheet name="References" sheetId="15" r:id="rId15"/>
+    <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Model!$A$1:$B$8</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Taxon!$A$1:$A$5</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Submodels!$A$1:$H$2</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Compartments!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Species types'!$A$1:$I$3</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">Concentrations!$A$1:$E$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Observables!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">Functions!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">Reactions!$A$1:$I$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">Parameters!$A$1:$H$4</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">References!$A$1:$Q$1</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'Database references'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrations!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Database references'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Functions!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Observables!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -286,30 +299,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
+        <fgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -323,21 +337,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -625,23 +645,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,25 +681,25 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,36 +707,32 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B8"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -743,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -753,12 +765,12 @@
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="s"/>
-      <c r="G2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -768,35 +780,31 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="s"/>
-      <c r="G3" s="2" t="s"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,31 +827,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7"/>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,31 +863,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,82 +908,78 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s"/>
-      <c r="H2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:8">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s"/>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>0.3</v>
       </c>
-      <c r="F3" s="2" t="s"/>
-      <c r="G3" s="2" t="s"/>
-      <c r="H3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:8">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s"/>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="2" t="s"/>
-      <c r="H4" s="2" t="s"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H4"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,31 +993,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4"/>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,31 +1065,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17"/>
   </sheetData>
   <autoFilter ref="A1:Q1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1132,79 +1116,70 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10"/>
   </sheetData>
   <autoFilter ref="A1:J1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:2">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" spans="1:2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" spans="1:2">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A5"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,46 +1205,42 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="s"/>
-      <c r="H2" s="2" t="s"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,49 +1251,49 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:5">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1e-16</v>
-      </c>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="s"/>
+      <c r="C2" s="2">
+        <v>9.9999999999999998E-17</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A1:F2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,64 +1322,60 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s"/>
-      <c r="C2" s="2" t="s"/>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="n">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s"/>
-      <c r="I2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:9">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s"/>
-      <c r="C3" s="2" t="s"/>
-      <c r="D3" s="2" t="s"/>
-      <c r="E3" s="2" t="n">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s"/>
-      <c r="I3" s="2" t="s"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1425,56 +1392,52 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0.01660539040427164</v>
+      <c r="B2" s="2">
+        <v>1.6605390404271642E-2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:5">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.01660539040427164</v>
+      <c r="B3" s="2">
+        <v>1.6605390404271642E-2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s"/>
-      <c r="E3" s="2" t="s"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,31 +1454,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5"/>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,31 +1487,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4"/>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,11 +1535,11 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1596,13 +1549,13 @@
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="s"/>
-      <c r="I2" s="2" t="s"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>